--- a/Opstat.xlsx
+++ b/Opstat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 6\6. Optimasi Statistika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432ACEFA-8206-43FF-AD0B-EFEA6F134BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761943CD-3A92-46F4-8B9F-868E9745A88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="8640" windowWidth="14610" windowHeight="8745" xr2:uid="{8B8E5651-2235-4668-BF70-ABBB7362AC89}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{8B8E5651-2235-4668-BF70-ABBB7362AC89}"/>
   </bookViews>
   <sheets>
     <sheet name="02" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>B2 + 2B1</t>
   </si>
@@ -54,6 +54,33 @@
   </si>
   <si>
     <t>X1</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>B1+B2</t>
+  </si>
+  <si>
+    <t>B2 + 2B3</t>
+  </si>
+  <si>
+    <t>B3+B1</t>
+  </si>
+  <si>
+    <t>B1 /3</t>
+  </si>
+  <si>
+    <t>B2- 5B3</t>
+  </si>
+  <si>
+    <t>B3- B2</t>
+  </si>
+  <si>
+    <t>B2 /-12</t>
+  </si>
+  <si>
+    <t>B3 /-4</t>
   </si>
 </sst>
 </file>
@@ -104,10 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +149,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08728A5-A37A-2128-D56E-F29326EF3212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4242955" y="0"/>
+          <a:ext cx="1974272" cy="1282945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3B6DE7-D58A-EB31-8844-54C9BA2D54BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4242955" y="2476501"/>
+          <a:ext cx="2182090" cy="1398588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,39 +541,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B5321E-529B-4DE9-92AA-E3140A54FE2D}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1">
         <v>-3</v>
       </c>
-      <c r="B1" s="2">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>-1</v>
+      </c>
+      <c r="D1">
         <v>-1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>-6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>-7</v>
       </c>
       <c r="F2" t="s">
@@ -462,16 +581,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>-4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>-6</v>
       </c>
       <c r="F3" t="s">
@@ -610,7 +729,245 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>A14+A15</f>
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f>B14+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="A18:D18" si="6">C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A15+A16*2</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:D19" si="7">B15+B16*2</f>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A16+A14</f>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:D20" si="8">B16+B14</f>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A18/3</f>
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="9">B18/3</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A19-A20*5</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>B19-B20*5</f>
+        <v>-12</v>
+      </c>
+      <c r="C23">
+        <f>C19-C20*5</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>D19-D20*5</f>
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:D24" si="10">A20-A19</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>B20-B19</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="10"/>
+        <v>-8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A22</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:D26" si="11">B22</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A23/-12</f>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:D27" si="12">B23/-12</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A24/-4</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:D28" si="13">B24/-4</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>